--- a/Input/GAMMAPA/Input Template NRTL.xlsx
+++ b/Input/GAMMAPA/Input Template NRTL.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lira.EGR\Documents\repos\MDNAproject\Input\GAMMAPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B3720D-FE39-4C99-9B8E-1F1859E550F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C69A886-CBC2-4C1A-B1F7-7E494AEC3411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{0578C423-B671-46A0-8079-06A0FFA830B6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0578C423-B671-46A0-8079-06A0FFA830B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="2" r:id="rId1"/>
-    <sheet name="NRTL Parameters" sheetId="1" r:id="rId2"/>
+    <sheet name="NRTL Parameters" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>pairId</t>
   </si>
@@ -73,9 +72,6 @@
   </si>
   <si>
     <t>id1 should be &lt; id2 to facilitate searching. See the 'Instruction' sheet for maintaining links to the database.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you copy/paste information from the database, you will </t>
   </si>
   <si>
     <t>npairs</t>
@@ -808,26 +804,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9A3FA8-EB59-4C07-B037-BFCD8CAA580D}">
-  <dimension ref="B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF396A75-836E-4A29-9B84-37F6F874C9B6}">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -842,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
